--- a/testing/CRUDRoom_TestCases.xlsx
+++ b/testing/CRUDRoom_TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Testobjekt:</t>
   </si>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>Fehlermeldung; Zimmer lässt sich nicht anlegen</t>
-  </si>
-  <si>
-    <t>Zimmer kann angelegt werden, obwohl Name leer ist
-</t>
   </si>
   <si>
     <t>Zimmer editieren</t>
@@ -337,8 +333,8 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="E7" activeCellId="0" pane="topLeft" sqref="E7"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="F7" activeCellId="0" pane="topLeft" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -449,7 +445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="38.65" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.3" outlineLevel="0" r="7">
       <c r="A7" s="7" t="n">
         <v>2</v>
       </c>
@@ -462,14 +458,10 @@
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.25" outlineLevel="0" r="8">
@@ -477,13 +469,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -496,13 +488,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
@@ -510,24 +502,24 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="52.6" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.85" outlineLevel="0" r="10">
       <c r="A10" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>16</v>
